--- a/data/spring-cloud-shop/shop-activity-client_structure.xlsx
+++ b/data/spring-cloud-shop/shop-activity-client_structure.xlsx
@@ -270,13 +270,13 @@
     <t>private</t>
   </si>
   <si>
+    <t>val$cause</t>
+  </si>
+  <si>
+    <t>java.lang.Throwable</t>
+  </si>
+  <si>
     <t>this$0</t>
-  </si>
-  <si>
-    <t>val$cause</t>
-  </si>
-  <si>
-    <t>java.lang.Throwable</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -3211,7 +3211,7 @@
         <v>61</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -3219,13 +3219,13 @@
         <v>57</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
